--- a/The Agency/Assets/Story_Sheet.xlsx
+++ b/The Agency/Assets/Story_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>TYPE</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>£</t>
+  </si>
+  <si>
+    <t>audiotest</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>KitchenCounterCoins</t>
+  </si>
+  <si>
+    <t>LivingRoomTablePour</t>
+  </si>
+  <si>
+    <t>audiotest2</t>
+  </si>
+  <si>
+    <t>audiotest3</t>
+  </si>
+  <si>
+    <t>KitchenStove</t>
   </si>
 </sst>
 </file>
@@ -417,22 +438,22 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -452,10 +473,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -464,20 +485,20 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <f>(LEN(D2)*0.03)</f>
+        <f t="shared" ref="E2:E37" si="0">(LEN(D2)*0.03)</f>
         <v>1.02</v>
       </c>
       <c r="F2">
-        <f>E2+C2</f>
+        <f t="shared" ref="F2:F37" si="1">E2+C2</f>
         <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -486,385 +507,418 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>(LEN(D3)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>1.53</v>
       </c>
       <c r="F3">
-        <f>E3+C3</f>
+        <f t="shared" si="1"/>
         <v>6.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E4">
-        <f>(LEN(D4)*0.03)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F4">
-        <f>E4+C4</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E5">
-        <f>(LEN(D5)*0.03)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F5">
-        <f>E5+C5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E6">
-        <f>(LEN(D6)*0.03)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.36</v>
       </c>
       <c r="F6">
-        <f>E6+C6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7">
-        <f>(LEN(D7)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>E7+C7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8">
-        <f>(LEN(D8)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>E8+C8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9">
-        <f>(LEN(D9)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>E9+C9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10">
-        <f>(LEN(D10)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>E10+C10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11">
-        <f>(LEN(D11)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>E11+C11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12">
-        <f>(LEN(D12)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>E12+C12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13">
-        <f>(LEN(D13)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>E13+C13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14">
-        <f>(LEN(D14)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>E14+C14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15">
-        <f>(LEN(D15)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>E15+C15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16">
-        <f>(LEN(D16)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>E16+C16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17">
-        <f>(LEN(D17)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>E17+C17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18">
-        <f>(LEN(D18)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>E18+C18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19">
-        <f>(LEN(D19)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>E19+C19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20">
-        <f>(LEN(D20)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>E20+C20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21">
-        <f>(LEN(D21)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>E21+C21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22">
-        <f>(LEN(D22)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>E22+C22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23">
-        <f>(LEN(D23)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>E23+C23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24">
-        <f>(LEN(D24)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>E24+C24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25">
-        <f>(LEN(D25)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>E25+C25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26">
-        <f>(LEN(D26)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>E26+C26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27">
-        <f>(LEN(D27)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>E27+C27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28">
-        <f>(LEN(D28)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>E28+C28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29">
-        <f>(LEN(D29)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>E29+C29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30">
-        <f>(LEN(D30)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>E30+C30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31">
-        <f>(LEN(D31)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>E31+C31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32">
-        <f>(LEN(D32)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>E32+C32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33">
-        <f>(LEN(D33)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>E33+C33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34">
-        <f>(LEN(D34)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>E34+C34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35">
-        <f>(LEN(D35)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>E35+C35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36">
-        <f>(LEN(D36)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>E36+C36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37">
-        <f>(LEN(D37)*0.03)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>E37+C37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/The Agency/Assets/Story_Sheet.xlsx
+++ b/The Agency/Assets/Story_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>TYPE</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>KitchenStove</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +457,7 @@
     <col min="4" max="4" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,16 +471,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -484,16 +496,19 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E37" si="0">(LEN(D2)*0.03)</f>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <f>(LEN(D2)*0.03)</f>
         <v>1.02</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F37" si="1">E2+C2</f>
+      <c r="G2">
+        <f>F2+C2</f>
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -506,16 +521,19 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <f>(LEN(D3)*0.03)</f>
         <v>1.53</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
+      <c r="G3">
+        <f>F3+C3</f>
         <v>6.53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -528,16 +546,19 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <f>(LEN(D4)*0.03)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="G4">
+        <f>F4+C4</f>
         <v>3.57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -550,16 +571,19 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <f>(LEN(D5)*0.03)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="G5">
+        <f>F5+C5</f>
         <v>5.57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -572,357 +596,360 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <f>(LEN(D6)*0.03)</f>
         <v>0.36</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="G6">
+        <f>F6+C6</f>
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D7)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>F7+C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D8)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>F8+C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D9)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>F9+C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D10)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>F10+C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D11)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>F11+C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D12)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>F12+C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D13)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>F13+C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D14)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>F14+C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(LEN(D15)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>F15+C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D16)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>F16+C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D17)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>F17+C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D18)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>F18+C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D19)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>F19+C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D20)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>F20+C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D21)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>F21+C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D22)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>F22+C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D23)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>F23+C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D24)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>F24+C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D25)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>F25+C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D26)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>F26+C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D27)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>F27+C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D28)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>F28+C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D29)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>F29+C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D30)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>F30+C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D31)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>F31+C31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D32)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>F32+C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D33)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>F33+C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D34)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>F34+C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D35)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>F35+C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D36)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>F36+C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+        <f>(LEN(D37)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>F37+C37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
   </sheetData>

--- a/The Agency/Assets/Story_Sheet.xlsx
+++ b/The Agency/Assets/Story_Sheet.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjark\Documents\GitHub\The-Agency\The Agency\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjark\Documents\The-Agency\The Agency\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="storysheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>TYPE</t>
   </si>
@@ -44,9 +44,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>Hello Agent. Welcome to the Class.</t>
-  </si>
-  <si>
     <t>Telltime</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>intro2</t>
   </si>
   <si>
-    <t>This is the big leagues. Do you think you're ready?</t>
-  </si>
-  <si>
     <t>£</t>
   </si>
   <si>
@@ -90,19 +84,58 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>intro1</t>
+  </si>
+  <si>
+    <t>intro3</t>
+  </si>
+  <si>
+    <t>“Are you actually going to go through with this?”</t>
+  </si>
+  <si>
+    <t>“What’s… Oh.”</t>
+  </si>
+  <si>
+    <t>“This is crazy.”</t>
+  </si>
+  <si>
+    <t>INTRO TEXT</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Alyv</t>
+  </si>
+  <si>
+    <t>Troma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,10 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,515 +480,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <f>(LEN(D2)*0.03)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>F2+C2</f>
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(LEN(C2)*0.03)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <f>G2+F2</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">(LEN(C3)*0.03)</f>
+        <v>1.47</v>
+      </c>
+      <c r="H3">
+        <f>G3+F3</f>
+        <v>3.4699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="H4">
+        <f>G4+F4</f>
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>(LEN(C5)*0.03)</f>
+        <v>0.48</v>
+      </c>
+      <c r="H5">
+        <f>G5+F5</f>
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <f>(LEN(D3)*0.03)</f>
-        <v>1.53</v>
-      </c>
-      <c r="G3">
-        <f>F3+C3</f>
-        <v>6.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>(LEN(C6)*0.03)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H6">
+        <f>G6+F6</f>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <f>(LEN(D4)*0.03)</f>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>(LEN(C7)*0.03)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="G4">
-        <f>F4+C4</f>
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H7">
+        <f>G7+F7</f>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <f>(LEN(D5)*0.03)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G5">
-        <f>F5+C5</f>
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <f>(LEN(D6)*0.03)</f>
+      <c r="G8">
+        <f>(LEN(C8)*0.03)</f>
         <v>0.36</v>
       </c>
-      <c r="G6">
-        <f>F6+C6</f>
+      <c r="H8">
+        <f>G8+F8</f>
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="F7">
-        <f>(LEN(D7)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>F7+C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="F8">
-        <f>(LEN(D8)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>F8+C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="F9">
-        <f>(LEN(D9)*0.03)</f>
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
       <c r="G9">
-        <f>F9+C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="F10">
-        <f>(LEN(D10)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C9)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>G9+F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
       <c r="G10">
-        <f>F10+C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="F11">
-        <f>(LEN(D11)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C10)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>G10+F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
       <c r="G11">
-        <f>F11+C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="F12">
-        <f>(LEN(D12)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C11)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>G11+F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
       <c r="G12">
-        <f>F12+C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="F13">
-        <f>(LEN(D13)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C12)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>G12+F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
       <c r="G13">
-        <f>F13+C13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="F14">
-        <f>(LEN(D14)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C13)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>G13+F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
       <c r="G14">
-        <f>F14+C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="F15">
-        <f>(LEN(D15)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C14)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>G14+F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
       <c r="G15">
-        <f>F15+C15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="F16">
-        <f>(LEN(D16)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C15)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>G15+F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
       <c r="G16">
-        <f>F16+C16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="F17">
-        <f>(LEN(D17)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C16)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>G16+F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
       <c r="G17">
-        <f>F17+C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="F18">
-        <f>(LEN(D18)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C17)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>G17+F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
       <c r="G18">
-        <f>F18+C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="F19">
-        <f>(LEN(D19)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C18)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>G18+F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
       <c r="G19">
-        <f>F19+C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-      <c r="F20">
-        <f>(LEN(D20)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C19)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>G19+F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
       <c r="G20">
-        <f>F20+C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="F21">
-        <f>(LEN(D21)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C20)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>G20+F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
       <c r="G21">
-        <f>F21+C21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="F22">
-        <f>(LEN(D22)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C21)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>G21+F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
       <c r="G22">
-        <f>F22+C22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="F23">
-        <f>(LEN(D23)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C22)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>G22+F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
       <c r="G23">
-        <f>F23+C23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="F24">
-        <f>(LEN(D24)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C23)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>G23+F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
       <c r="G24">
-        <f>F24+C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="F25">
-        <f>(LEN(D25)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C24)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>G24+F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
       <c r="G25">
-        <f>F25+C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="F26">
-        <f>(LEN(D26)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C25)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>G25+F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
       <c r="G26">
-        <f>F26+C26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="F27">
-        <f>(LEN(D27)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C26)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>G26+F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
       <c r="G27">
-        <f>F27+C27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="F28">
-        <f>(LEN(D28)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C27)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>G27+F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
       <c r="G28">
-        <f>F28+C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="F29">
-        <f>(LEN(D29)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C28)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>G28+F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
       <c r="G29">
-        <f>F29+C29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="F30">
-        <f>(LEN(D30)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C29)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>G29+F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
       <c r="G30">
-        <f>F30+C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="F31">
-        <f>(LEN(D31)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C30)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>G30+F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
       <c r="G31">
-        <f>F31+C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-      <c r="F32">
-        <f>(LEN(D32)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C31)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>G31+F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
       <c r="G32">
-        <f>F32+C32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="F33">
-        <f>(LEN(D33)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C32)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>G32+F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
       <c r="G33">
-        <f>F33+C33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="F34">
-        <f>(LEN(D34)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C33)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>G33+F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
       <c r="G34">
-        <f>F34+C34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="F35">
-        <f>(LEN(D35)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C34)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>G34+F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
       <c r="G35">
-        <f>F35+C35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="F36">
-        <f>(LEN(D36)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C35)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>G35+F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
       <c r="G36">
-        <f>F36+C36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="F37">
-        <f>(LEN(D37)*0.03)</f>
-        <v>0</v>
-      </c>
+        <f>(LEN(C36)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>G36+F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
       <c r="G37">
-        <f>F37+C37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
+        <f>(LEN(C37)*0.03)</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>G37+F37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/The Agency/Assets/Story_Sheet.xlsx
+++ b/The Agency/Assets/Story_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>TYPE</t>
   </si>
@@ -56,27 +56,9 @@
     <t>£</t>
   </si>
   <si>
-    <t>audiotest</t>
-  </si>
-  <si>
     <t>AUDIO</t>
   </si>
   <si>
-    <t>KitchenCounterCoins</t>
-  </si>
-  <si>
-    <t>LivingRoomTablePour</t>
-  </si>
-  <si>
-    <t>audiotest2</t>
-  </si>
-  <si>
-    <t>audiotest3</t>
-  </si>
-  <si>
-    <t>KitchenStove</t>
-  </si>
-  <si>
     <t>ROOM</t>
   </si>
   <si>
@@ -95,15 +77,9 @@
     <t>intro3</t>
   </si>
   <si>
-    <t>“Are you actually going to go through with this?”</t>
-  </si>
-  <si>
     <t>“What’s… Oh.”</t>
   </si>
   <si>
-    <t>“This is crazy.”</t>
-  </si>
-  <si>
     <t>INTRO TEXT</t>
   </si>
   <si>
@@ -117,13 +93,313 @@
   </si>
   <si>
     <t>Troma</t>
+  </si>
+  <si>
+    <t>“Oh my god, are you actually going through with this?”</t>
+  </si>
+  <si>
+    <t>“This is crazy. You know that? Nuts.”</t>
+  </si>
+  <si>
+    <t>“It’s not a problem.”</t>
+  </si>
+  <si>
+    <t>“How can you think that? Living here? We came here to stop… No, I’m not going to start that conversation now… Just, please tell me you aren’t doing actually pulling through with this.”</t>
+  </si>
+  <si>
+    <t>“Alyv. We know what we’re doing.”</t>
+  </si>
+  <si>
+    <t>“It’s not that I don’t trust you, Trom. But you’ve got to realize that what you’re doing puts me at risk too! If my boss found out about this--”</t>
+  </si>
+  <si>
+    <t>“Oh, please. Go on and on about your job again, please. I’d love to hear more.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Shit, not again. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>I’m not talking about my job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>. I’m talking about us here. If I lose my job, then how’re we going to survive?”</t>
+    </r>
+  </si>
+  <si>
+    <t>“And you think I don’t know that it’s a risk? You think I haven’t thought about the consequences?”</t>
+  </si>
+  <si>
+    <t>“This my job, my life. I want to set things right. I want to be able to live like we did back home.”</t>
+  </si>
+  <si>
+    <t>“And you think they’ll all just let you?”</t>
+  </si>
+  <si>
+    <t>“Stay out of it then. I’m not asking you to get involved. This is my business.”</t>
+  </si>
+  <si>
+    <t>“I can’t! I literally can’t! I’m your wife! It’s not like your life is a distant, faraway thing I don’t have to worry about.”</t>
+  </si>
+  <si>
+    <t>“You want to be in? That’s fine. I bet we can arrange it with the boys.”</t>
+  </si>
+  <si>
+    <t>“God, you are thick sometimes. Okay, I’m going.”</t>
+  </si>
+  <si>
+    <t>“Where?”</t>
+  </si>
+  <si>
+    <t>“Gerald’s place.”</t>
+  </si>
+  <si>
+    <t>“Gerald?”</t>
+  </si>
+  <si>
+    <t>“Yeah.”</t>
+  </si>
+  <si>
+    <t>“That guy from your work?”</t>
+  </si>
+  <si>
+    <t>“Yes. We’ve got an important presentation tomorrow, so we’re going through it tonight.”</t>
+  </si>
+  <si>
+    <t>“What? You didn’t tell me. Thought you were home for dinner for a change.”</t>
+  </si>
+  <si>
+    <t>“I told you last week.”</t>
+  </si>
+  <si>
+    <t>“Last week? You weren’t even home last week.”</t>
+  </si>
+  <si>
+    <t>“I was! Thursday! We talked in the evening.”</t>
+  </si>
+  <si>
+    <t>“Oh, right, that conversation where you were talking to the bathroom mirror while I was cooking leftovers for you. Right, you thought I was paying attention there?”</t>
+  </si>
+  <si>
+    <t>“Yes, I actually did. Would it hurt you to pay attention to me for more than five minutes!”</t>
+  </si>
+  <si>
+    <t>“It’d help if you were home for more than that!”</t>
+  </si>
+  <si>
+    <t>“I am! Please listen to me so you can actually remember it!”</t>
+  </si>
+  <si>
+    <t>“You say, as you’re hastily leaving.”</t>
+  </si>
+  <si>
+    <t>“Oh, why do you always make things this complicated?”</t>
+  </si>
+  <si>
+    <t>“Fuck. Just leave already.”</t>
+  </si>
+  <si>
+    <t>“Fine.”</t>
+  </si>
+  <si>
+    <t>“See you later.”</t>
+  </si>
+  <si>
+    <t>intro4</t>
+  </si>
+  <si>
+    <t>intro5</t>
+  </si>
+  <si>
+    <t>intro6</t>
+  </si>
+  <si>
+    <t>intro7</t>
+  </si>
+  <si>
+    <t>intro8</t>
+  </si>
+  <si>
+    <t>intro9</t>
+  </si>
+  <si>
+    <t>intro10</t>
+  </si>
+  <si>
+    <t>intro11</t>
+  </si>
+  <si>
+    <t>intro12</t>
+  </si>
+  <si>
+    <t>intro13</t>
+  </si>
+  <si>
+    <t>intro14</t>
+  </si>
+  <si>
+    <t>intro15</t>
+  </si>
+  <si>
+    <t>intro16</t>
+  </si>
+  <si>
+    <t>intro17</t>
+  </si>
+  <si>
+    <t>intro18</t>
+  </si>
+  <si>
+    <t>intro19</t>
+  </si>
+  <si>
+    <t>intro20</t>
+  </si>
+  <si>
+    <t>intro21</t>
+  </si>
+  <si>
+    <t>intro22</t>
+  </si>
+  <si>
+    <t>intro23</t>
+  </si>
+  <si>
+    <t>intro24</t>
+  </si>
+  <si>
+    <t>intro25</t>
+  </si>
+  <si>
+    <t>intro26</t>
+  </si>
+  <si>
+    <t>intro27</t>
+  </si>
+  <si>
+    <t>intro28</t>
+  </si>
+  <si>
+    <t>intro29</t>
+  </si>
+  <si>
+    <t>intro30</t>
+  </si>
+  <si>
+    <t>intro31</t>
+  </si>
+  <si>
+    <t>intro32</t>
+  </si>
+  <si>
+    <t>intro33</t>
+  </si>
+  <si>
+    <t>intro34</t>
+  </si>
+  <si>
+    <t>intro35</t>
+  </si>
+  <si>
+    <t>intro36</t>
+  </si>
+  <si>
+    <t>intro37</t>
+  </si>
+  <si>
+    <t>"Clearly not.”</t>
+  </si>
+  <si>
+    <t>audioambience1</t>
+  </si>
+  <si>
+    <t>audioambience2</t>
+  </si>
+  <si>
+    <t>KitchenDishwasher</t>
+  </si>
+  <si>
+    <t>BedroomTraffic</t>
+  </si>
+  <si>
+    <t>BedroomWindowSmoke</t>
+  </si>
+  <si>
+    <t>BedroomWindowCough</t>
+  </si>
+  <si>
+    <t>audioambience3</t>
+  </si>
+  <si>
+    <t>audiointro1</t>
+  </si>
+  <si>
+    <t>audiointro2</t>
+  </si>
+  <si>
+    <t>audiointro3</t>
+  </si>
+  <si>
+    <t>audiointro4</t>
+  </si>
+  <si>
+    <t>audiointro5</t>
+  </si>
+  <si>
+    <t>audiointro6</t>
+  </si>
+  <si>
+    <t>audiointro7</t>
+  </si>
+  <si>
+    <t>LivingRoomWardrobeZipper</t>
+  </si>
+  <si>
+    <t>LivingRoomExitDoorOpen</t>
+  </si>
+  <si>
+    <t>audiointro8</t>
+  </si>
+  <si>
+    <t>LivingRoomExitDoorCloseSlam</t>
+  </si>
+  <si>
+    <t>LivingRoomSofaSitOn</t>
+  </si>
+  <si>
+    <t>LivingRoomTVOn</t>
+  </si>
+  <si>
+    <t>audiointro9</t>
+  </si>
+  <si>
+    <t>audiointro10</t>
+  </si>
+  <si>
+    <t>BedroomDoorToLivingRoomOpen</t>
+  </si>
+  <si>
+    <t>BedroomDoorToLivingRoomClose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +408,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -158,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,6 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -530,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -546,7 +830,7 @@
         <v>0.3</v>
       </c>
       <c r="H2">
-        <f>G2+F2</f>
+        <f t="shared" ref="H2:H39" si="0">G2+F2</f>
         <v>1.3</v>
       </c>
     </row>
@@ -555,27 +839,27 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">(LEN(C3)*0.03)</f>
-        <v>1.47</v>
+        <f t="shared" ref="G3:G4" si="1">(LEN(C3)*0.03)</f>
+        <v>1.6199999999999999</v>
       </c>
       <c r="H3">
-        <f>G3+F3</f>
-        <v>3.4699999999999998</v>
+        <f>(G3+F3)</f>
+        <v>7.62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -586,24 +870,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
       <c r="H4">
-        <f>G4+F4</f>
-        <v>4.3899999999999997</v>
+        <f t="shared" si="0"/>
+        <v>9.39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -611,434 +895,1240 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G39" si="2">(LEN(C5)*0.03)</f>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5.52</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4.32</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <f>(LEN(C5)*0.03)</f>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.37</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>28.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3.78</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>32.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2.94</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.23</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>43.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.37</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>56.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>60.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>62</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>62.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>63.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>66</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2.61</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>71.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>72</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>72.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>73</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>74.349999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>4.92</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>84</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2.73</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>86.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>88.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>92</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>94</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>95.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>96</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>96.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>97</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>97.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>98</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="H5">
-        <f>G5+F5</f>
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>98.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>99</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>99.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>(LEN(C6)*0.03)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H6">
-        <f>G6+F6</f>
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <f>(LEN(C7)*0.03)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H7">
-        <f>G7+F7</f>
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <f>(LEN(C8)*0.03)</f>
-        <v>0.36</v>
-      </c>
-      <c r="H8">
-        <f>G8+F8</f>
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="G9">
-        <f>(LEN(C9)*0.03)</f>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
-      <c r="H9">
-        <f>G9+F9</f>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="G10">
-        <f>(LEN(C10)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>G10+F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="G11">
-        <f>(LEN(C11)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>G11+F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="G12">
-        <f>(LEN(C12)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>G12+F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="G13">
-        <f>(LEN(C13)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>G13+F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="G14">
-        <f>(LEN(C14)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>G14+F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="G15">
-        <f>(LEN(C15)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>G15+F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="G16">
-        <f>(LEN(C16)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>G16+F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="G17">
-        <f>(LEN(C17)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>G17+F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="G18">
-        <f>(LEN(C18)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>G18+F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="G19">
-        <f>(LEN(C19)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f>G19+F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="G20">
-        <f>(LEN(C20)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f>G20+F20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="G21">
-        <f>(LEN(C21)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f>G21+F21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="G22">
-        <f>(LEN(C22)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f>G22+F22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="G23">
-        <f>(LEN(C23)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>G23+F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="G24">
-        <f>(LEN(C24)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>G24+F24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="G25">
-        <f>(LEN(C25)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f>G25+F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="G26">
-        <f>(LEN(C26)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>G26+F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="G27">
-        <f>(LEN(C27)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f>G27+F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="G28">
-        <f>(LEN(C28)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f>G28+F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="G29">
-        <f>(LEN(C29)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>G29+F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="G30">
-        <f>(LEN(C30)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f>G30+F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="G31">
-        <f>(LEN(C31)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>G31+F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="G32">
-        <f>(LEN(C32)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>G32+F32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="G33">
-        <f>(LEN(C33)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>G33+F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="G34">
-        <f>(LEN(C34)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f>G34+F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="G35">
-        <f>(LEN(C35)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f>G35+F35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="G36">
-        <f>(LEN(C36)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f>G36+F36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="G37">
-        <f>(LEN(C37)*0.03)</f>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f>G37+F37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
